--- a/knowledge/data/irt-items.xlsx
+++ b/knowledge/data/irt-items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="259" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -234,7 +234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -270,24 +270,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
@@ -298,10 +298,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -312,13 +312,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -326,239 +326,15 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -568,7 +344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -587,24 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge/data/irt-items.xlsx
+++ b/knowledge/data/irt-items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="259" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="327" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
